--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.11610000000001</v>
+        <v>-22.08960000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.81379999999998</v>
+        <v>-19.90869999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.44839999999997</v>
+        <v>-20.58059999999999</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.65279999999998</v>
+        <v>-21.51449999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.8347</v>
+        <v>-8.804300000000003</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.419700000000001</v>
+        <v>-8.231000000000003</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.941800000000002</v>
+        <v>-8.116899999999998</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.464799999999998</v>
+        <v>-7.352599999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.668700000000002</v>
+        <v>-7.853700000000003</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.777100000000002</v>
+        <v>-7.6518</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.7806</v>
+        <v>-21.8154</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.089499999999997</v>
+        <v>-8.251899999999997</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.908299999999996</v>
+        <v>-7.940999999999997</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.2682</v>
+        <v>-22.1693</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.361799999999999</v>
+        <v>-8.567100000000005</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.1459</v>
+        <v>-22.19179999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63240000000001</v>
+        <v>-21.6352</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.782399999999996</v>
+        <v>-7.825099999999996</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.51270000000001</v>
+        <v>-20.46500000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.93369999999999</v>
+        <v>-21.9217</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.8025</v>
+        <v>-5.786900000000002</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.987500000000006</v>
+        <v>-8.035000000000004</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.36579999999999</v>
+        <v>-21.3802</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
